--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12090" tabRatio="599"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -255,12 +255,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -286,49 +286,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,22 +319,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -370,14 +373,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,54 +395,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,48 +445,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -499,14 +486,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,25 +496,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +586,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,61 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,96 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +718,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -779,17 +757,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,194 +800,183 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1052,62 +1015,62 @@
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="1"/>
-    <cellStyle name="差 2 2 2" xfId="2"/>
+    <cellStyle name="差 2 2 2" xfId="1"/>
+    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="常规 5 4 2 3 2" xfId="7"/>
-    <cellStyle name="常规 2 2 4" xfId="8"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="常规 5 4 2 3 2" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="输入" xfId="7" builtinId="20"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="9" builtinId="6"/>
     <cellStyle name="60% - 强调文字颜色 1 4 2 2" xfId="10"/>
-    <cellStyle name="千位分隔" xfId="11" builtinId="3"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
-    <cellStyle name="差" xfId="13" builtinId="27"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11" builtinId="39"/>
+    <cellStyle name="差" xfId="12" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="13" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
     <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="百分比" xfId="16" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
     <cellStyle name="注释" xfId="18" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19" builtinId="36"/>
-    <cellStyle name="常规 12 2 2" xfId="20"/>
+    <cellStyle name="常规 12 2 2" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
     <cellStyle name="标题 4" xfId="21" builtinId="19"/>
     <cellStyle name="警告文本" xfId="22" builtinId="11"/>
     <cellStyle name="标题" xfId="23" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="34" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
-    <cellStyle name="汇总" xfId="36" builtinId="25"/>
-    <cellStyle name="好" xfId="37" builtinId="26"/>
-    <cellStyle name="适中" xfId="38" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="46" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 10" xfId="55"/>
-    <cellStyle name="好 4 2" xfId="56"/>
+    <cellStyle name="好 4 2" xfId="24"/>
+    <cellStyle name="解释性文本" xfId="25" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="27" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="29" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="30" builtinId="44"/>
+    <cellStyle name="输出" xfId="31" builtinId="21"/>
+    <cellStyle name="计算" xfId="32" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="33" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="34" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="35" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="36" builtinId="24"/>
+    <cellStyle name="汇总" xfId="37" builtinId="25"/>
+    <cellStyle name="好" xfId="38" builtinId="26"/>
+    <cellStyle name="适中" xfId="39" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="40" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="41" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="42" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="43" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="45" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="46" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="47" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="48" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
+    <cellStyle name="常规 10" xfId="54"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="55" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="56" builtinId="52"/>
     <cellStyle name="常规 3" xfId="57"/>
     <cellStyle name="常规 7" xfId="58"/>
     <cellStyle name="适中 3" xfId="59"/>
@@ -1691,8 +1654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="190">
   <si>
     <t>描述</t>
   </si>
@@ -248,6 +248,342 @@
   </si>
   <si>
     <t>AddSkillPoint</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>“上等精铁铸成，锋利无比”</t>
+  </si>
+  <si>
+    <t>EQUIP</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>WARRIOR</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1001</t>
+  </si>
+  <si>
+    <t>铁盾</t>
+  </si>
+  <si>
+    <t>“上等精铁铸成”</t>
+  </si>
+  <si>
+    <t>配件</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1002</t>
+  </si>
+  <si>
+    <t>铁头盔</t>
+  </si>
+  <si>
+    <t>防具</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1003</t>
+  </si>
+  <si>
+    <t>铁胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1004</t>
+  </si>
+  <si>
+    <t>铁肩膀</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1005</t>
+  </si>
+  <si>
+    <t>铁裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1006</t>
+  </si>
+  <si>
+    <t>铁靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1007</t>
+  </si>
+  <si>
+    <t>桃木法杖</t>
+  </si>
+  <si>
+    <t>“百年桃木制成”</t>
+  </si>
+  <si>
+    <t>WIZARD</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2001</t>
+  </si>
+  <si>
+    <t>牛皮法典</t>
+  </si>
+  <si>
+    <t>“最健壮的牛皮所制”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2002</t>
+  </si>
+  <si>
+    <t>布巾</t>
+  </si>
+  <si>
+    <t>“采用上等布料，上等工艺”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2003</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2004</t>
+  </si>
+  <si>
+    <t>布肩</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2005</t>
+  </si>
+  <si>
+    <t>布裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2006</t>
+  </si>
+  <si>
+    <t>布靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2007</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>“韧性十足”</t>
+  </si>
+  <si>
+    <t>ARCHER</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3001</t>
+  </si>
+  <si>
+    <t>皮箭袋</t>
+  </si>
+  <si>
+    <t>“顶级野兽皮革所制”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3002</t>
+  </si>
+  <si>
+    <t>皮帽</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3003</t>
+  </si>
+  <si>
+    <t>皮衣</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3004</t>
+  </si>
+  <si>
+    <t>皮肩</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3005</t>
+  </si>
+  <si>
+    <t>皮裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3006</t>
+  </si>
+  <si>
+    <t>皮靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3007</t>
+  </si>
+  <si>
+    <t>星辰之剑</t>
+  </si>
+  <si>
+    <t>“星辰之力，孕育其中”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1011</t>
+  </si>
+  <si>
+    <t>星辰护盾</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1012</t>
+  </si>
+  <si>
+    <t>星辰头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1013</t>
+  </si>
+  <si>
+    <t>星辰胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1014</t>
+  </si>
+  <si>
+    <t>星辰肩膀</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1015</t>
+  </si>
+  <si>
+    <t>星辰裤子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1016</t>
+  </si>
+  <si>
+    <t>星辰靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1017</t>
+  </si>
+  <si>
+    <t>逐日法杖</t>
+  </si>
+  <si>
+    <t>“拥有太阳般的力量”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2011</t>
+  </si>
+  <si>
+    <t>逐日法典</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2012</t>
+  </si>
+  <si>
+    <t>逐日头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2013</t>
+  </si>
+  <si>
+    <t>逐日胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2014</t>
+  </si>
+  <si>
+    <t>逐日肩膀</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2015</t>
+  </si>
+  <si>
+    <t>逐日裤子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2016</t>
+  </si>
+  <si>
+    <t>逐日靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2017</t>
+  </si>
+  <si>
+    <t>伴月长弓</t>
+  </si>
+  <si>
+    <t>“月亮女神赐予”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3011</t>
+  </si>
+  <si>
+    <t>伴月箭袋</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3012</t>
+  </si>
+  <si>
+    <t>伴月头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3013</t>
+  </si>
+  <si>
+    <t>伴月胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3014</t>
+  </si>
+  <si>
+    <t>伴月肩膀</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3015</t>
+  </si>
+  <si>
+    <t>伴月裤子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3016</t>
+  </si>
+  <si>
+    <t>伴月靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3017</t>
+  </si>
+  <si>
+    <t>冰原虎</t>
+  </si>
+  <si>
+    <t>冰原猛虎长期生活在遥远的极寒之地，刺骨寒风锻炼着它坚韧的品质。</t>
+  </si>
+  <si>
+    <t>RIDE</t>
+  </si>
+  <si>
+    <t>坐骑</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8001</t>
+  </si>
+  <si>
+    <t>夜行虎</t>
+  </si>
+  <si>
+    <t>夜行虎昼伏夜出，它可以利用夜色遮掩自己的行迹，是名副其实的黑夜猎手。</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8002</t>
+  </si>
+  <si>
+    <t>森林虎</t>
+  </si>
+  <si>
+    <t>森林湖长期生活在古老的森林中，是实至名归的万兽之王。</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8003</t>
   </si>
 </sst>
 </file>
@@ -255,10 +591,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -285,6 +621,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -293,7 +630,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -306,19 +712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -327,22 +720,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,49 +765,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -422,55 +773,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,6 +793,35 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -496,85 +832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +868,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,66 +1013,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,32 +1039,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,13 +1083,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,15 +1103,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,183 +1121,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -998,28 +1334,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="差 2 2 2" xfId="1"/>
-    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="2"/>
+    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="1"/>
+    <cellStyle name="差 2 2 2" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
-    <cellStyle name="常规 2 2 4" xfId="4"/>
-    <cellStyle name="常规 5 4 2 3 2" xfId="5"/>
+    <cellStyle name="常规 5 4 2 3 2" xfId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="5"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
     <cellStyle name="货币" xfId="8" builtinId="4"/>
@@ -1131,7 +1467,7 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1340,8 +1676,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q13" totalsRowShown="0">
-  <autoFilter ref="A3:Q13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q58" totalsRowShown="0">
+  <autoFilter ref="A3:Q58"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1652,10 +1988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
@@ -1825,7 +2161,7 @@
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1872,7 +2208,7 @@
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1919,19 +2255,19 @@
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10"/>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1967,19 +2303,19 @@
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
@@ -2015,19 +2351,19 @@
       <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
@@ -2058,28 +2394,28 @@
       <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
         <v>0</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12">
-        <v>5</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10">
+        <v>5</v>
+      </c>
+      <c r="M9" s="10">
         <v>99</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -2097,19 +2433,19 @@
       <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
@@ -2143,19 +2479,19 @@
       <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
@@ -2189,19 +2525,19 @@
       <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>10</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
@@ -2232,19 +2568,19 @@
       <c r="C13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="1" t="b">
         <v>1</v>
       </c>
@@ -2267,6 +2603,1761 @@
       <c r="P13" s="5">
         <v>1</v>
       </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <v>5</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
+        <v>5</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
+        <v>5</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>5</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
+        <v>5</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1006</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <v>5</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1007</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
+        <v>5</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
+        <v>5</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
+        <v>5</v>
+      </c>
+      <c r="M22" s="11">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
+        <v>5</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
+        <v>5</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
+        <v>5</v>
+      </c>
+      <c r="M25" s="11">
+        <v>1</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11">
+        <v>5</v>
+      </c>
+      <c r="M26" s="11">
+        <v>1</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11">
+        <v>5</v>
+      </c>
+      <c r="M27" s="11">
+        <v>1</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2">
+        <v>3001</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3001</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11">
+        <v>5</v>
+      </c>
+      <c r="M28" s="11">
+        <v>1</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2">
+        <v>3002</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3002</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11">
+        <v>5</v>
+      </c>
+      <c r="M29" s="11">
+        <v>1</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2">
+        <v>3003</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3003</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11">
+        <v>5</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2">
+        <v>3004</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3004</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11">
+        <v>5</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2">
+        <v>3005</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3005</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11">
+        <v>5</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2">
+        <v>3006</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3006</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11">
+        <v>5</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2">
+        <v>3007</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3007</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11">
+        <v>5</v>
+      </c>
+      <c r="M34" s="11">
+        <v>1</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="11">
+        <v>10</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11">
+        <v>5</v>
+      </c>
+      <c r="M35" s="11">
+        <v>1</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="11">
+        <v>10</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11">
+        <v>5</v>
+      </c>
+      <c r="M36" s="11">
+        <v>1</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1013</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="11">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11">
+        <v>5</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1014</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="11">
+        <v>10</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11">
+        <v>5</v>
+      </c>
+      <c r="M38" s="11">
+        <v>1</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1015</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="11">
+        <v>10</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11">
+        <v>5</v>
+      </c>
+      <c r="M39" s="11">
+        <v>1</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1016</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="11">
+        <v>10</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11">
+        <v>5</v>
+      </c>
+      <c r="M40" s="11">
+        <v>1</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1017</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="11">
+        <v>10</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11">
+        <v>5</v>
+      </c>
+      <c r="M41" s="11">
+        <v>1</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="11">
+        <v>10</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11">
+        <v>5</v>
+      </c>
+      <c r="M42" s="11">
+        <v>1</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="11">
+        <v>10</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11">
+        <v>5</v>
+      </c>
+      <c r="M43" s="11">
+        <v>1</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="11">
+        <v>10</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11">
+        <v>5</v>
+      </c>
+      <c r="M44" s="11">
+        <v>1</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="11">
+        <v>10</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11">
+        <v>5</v>
+      </c>
+      <c r="M45" s="11">
+        <v>1</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="11">
+        <v>10</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11">
+        <v>5</v>
+      </c>
+      <c r="M46" s="11">
+        <v>1</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="11">
+        <v>10</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11">
+        <v>5</v>
+      </c>
+      <c r="M47" s="11">
+        <v>1</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="11">
+        <v>10</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11">
+        <v>5</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2">
+        <v>3011</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3011</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="11">
+        <v>10</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11">
+        <v>5</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2">
+        <v>3012</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3012</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="11">
+        <v>10</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11">
+        <v>5</v>
+      </c>
+      <c r="M50" s="11">
+        <v>1</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="2">
+        <v>3013</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3013</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="11">
+        <v>10</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11">
+        <v>5</v>
+      </c>
+      <c r="M51" s="11">
+        <v>1</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="2">
+        <v>3014</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3014</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="11">
+        <v>10</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11">
+        <v>5</v>
+      </c>
+      <c r="M52" s="11">
+        <v>1</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="O52" s="12"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2">
+        <v>3015</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3015</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="11">
+        <v>10</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11">
+        <v>5</v>
+      </c>
+      <c r="M53" s="11">
+        <v>1</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="O53" s="12"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="2">
+        <v>3016</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3016</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="11">
+        <v>10</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11">
+        <v>5</v>
+      </c>
+      <c r="M54" s="11">
+        <v>1</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="O54" s="12"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="2">
+        <v>3017</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3017</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="11">
+        <v>10</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11">
+        <v>5</v>
+      </c>
+      <c r="M55" s="11">
+        <v>1</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="O55" s="12"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="2">
+        <v>8001</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8001</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L56" s="11">
+        <v>500</v>
+      </c>
+      <c r="M56" s="11">
+        <v>1</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="O56" s="12"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2">
+        <v>8002</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8002</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="11">
+        <v>500</v>
+      </c>
+      <c r="M57" s="11">
+        <v>1</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="O57" s="12"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2">
+        <v>8003</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8003</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="11">
+        <v>500</v>
+      </c>
+      <c r="M58" s="11">
+        <v>1</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="O58" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="179">
   <si>
     <t>描述</t>
   </si>
@@ -551,39 +551,6 @@
   </si>
   <si>
     <t>UI/Items/equip3017</t>
-  </si>
-  <si>
-    <t>冰原虎</t>
-  </si>
-  <si>
-    <t>冰原猛虎长期生活在遥远的极寒之地，刺骨寒风锻炼着它坚韧的品质。</t>
-  </si>
-  <si>
-    <t>RIDE</t>
-  </si>
-  <si>
-    <t>坐骑</t>
-  </si>
-  <si>
-    <t>UI/Items/ride8001</t>
-  </si>
-  <si>
-    <t>夜行虎</t>
-  </si>
-  <si>
-    <t>夜行虎昼伏夜出，它可以利用夜色遮掩自己的行迹，是名副其实的黑夜猎手。</t>
-  </si>
-  <si>
-    <t>UI/Items/ride8002</t>
-  </si>
-  <si>
-    <t>森林虎</t>
-  </si>
-  <si>
-    <t>森林湖长期生活在古老的森林中，是实至名归的万兽之王。</t>
-  </si>
-  <si>
-    <t>UI/Items/ride8003</t>
   </si>
 </sst>
 </file>
@@ -591,10 +558,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -621,16 +588,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,9 +624,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,27 +653,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -699,14 +673,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,22 +711,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,13 +739,6 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -781,19 +760,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -804,7 +770,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,12 +789,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -832,7 +799,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,13 +877,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,13 +919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,25 +943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,97 +973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,20 +1008,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,6 +1020,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,30 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1122,197 +1084,202 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1351,11 +1318,11 @@
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="1"/>
-    <cellStyle name="差 2 2 2" xfId="2"/>
+    <cellStyle name="差 2 2 2" xfId="1"/>
+    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
-    <cellStyle name="常规 5 4 2 3 2" xfId="4"/>
-    <cellStyle name="常规 2 2 4" xfId="5"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="常规 5 4 2 3 2" xfId="5"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
     <cellStyle name="货币" xfId="8" builtinId="4"/>
@@ -1676,8 +1643,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q58" totalsRowShown="0">
-  <autoFilter ref="A3:Q58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q55" totalsRowShown="0">
+  <autoFilter ref="A3:Q55"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1990,8 +1957,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="A56" sqref="$A56:$XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
@@ -4242,121 +4209,46 @@
       </c>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="2">
-        <v>8001</v>
-      </c>
-      <c r="B56" s="2">
-        <v>8001</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G56" s="11">
-        <v>1</v>
-      </c>
+    <row r="56" spans="4:15">
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="11">
-        <v>1000</v>
-      </c>
-      <c r="L56" s="11">
-        <v>500</v>
-      </c>
-      <c r="M56" s="11">
-        <v>1</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>183</v>
-      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="2">
-        <v>8002</v>
-      </c>
-      <c r="B57" s="2">
-        <v>8002</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G57" s="11">
-        <v>1</v>
-      </c>
+    <row r="57" spans="4:15">
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="11">
-        <v>1000</v>
-      </c>
-      <c r="L57" s="11">
-        <v>500</v>
-      </c>
-      <c r="M57" s="11">
-        <v>1</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>186</v>
-      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="2">
-        <v>8003</v>
-      </c>
-      <c r="B58" s="2">
-        <v>8003</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="11">
-        <v>1</v>
-      </c>
+    <row r="58" spans="4:15">
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="11">
-        <v>1000</v>
-      </c>
-      <c r="L58" s="11">
-        <v>500</v>
-      </c>
-      <c r="M58" s="11">
-        <v>1</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>189</v>
-      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
       <c r="O58" s="12"/>
     </row>
   </sheetData>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="599"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="190">
   <si>
     <t>描述</t>
   </si>
@@ -551,6 +551,39 @@
   </si>
   <si>
     <t>UI/Items/equip3017</t>
+  </si>
+  <si>
+    <t>冰原虎</t>
+  </si>
+  <si>
+    <t>冰原猛虎长期生活在遥远的极寒之地，刺骨寒风锻炼着它坚韧的品质。</t>
+  </si>
+  <si>
+    <t>RIDE</t>
+  </si>
+  <si>
+    <t>坐骑</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8001</t>
+  </si>
+  <si>
+    <t>夜行虎</t>
+  </si>
+  <si>
+    <t>夜行虎昼伏夜出，它可以利用夜色遮掩自己的行迹，是名副其实的黑夜猎手。</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8002</t>
+  </si>
+  <si>
+    <t>森林虎</t>
+  </si>
+  <si>
+    <t>森林湖长期生活在古老的森林中，是实至名归的万兽之王。</t>
+  </si>
+  <si>
+    <t>UI/Items/ride8003</t>
   </si>
 </sst>
 </file>
@@ -559,9 +592,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -589,7 +622,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,6 +643,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -617,9 +672,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,18 +698,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,36 +720,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,31 +734,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -744,11 +762,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,7 +787,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,7 +795,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,7 +817,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,7 +832,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,37 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,55 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,49 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,8 +1050,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1040,6 +1075,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1050,21 +1109,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,17 +1130,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1106,180 +1139,180 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1318,11 +1351,11 @@
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="差 2 2 2" xfId="1"/>
-    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="2"/>
+    <cellStyle name="常规 2 2 5 2 2 3 2 4 2 2 4 2" xfId="1"/>
+    <cellStyle name="差 2 2 2" xfId="2"/>
     <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
-    <cellStyle name="常规 2 2 4" xfId="4"/>
-    <cellStyle name="常规 5 4 2 3 2" xfId="5"/>
+    <cellStyle name="常规 5 4 2 3 2" xfId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="5"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
     <cellStyle name="货币" xfId="8" builtinId="4"/>
@@ -1643,8 +1676,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q55" totalsRowShown="0">
-  <autoFilter ref="A3:Q55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q58" totalsRowShown="0">
+  <autoFilter ref="A3:Q58"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1957,8 +1990,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="A56" sqref="$A56:$XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25"/>
@@ -4209,46 +4242,121 @@
       </c>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="4:15">
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+    <row r="56" spans="1:15">
+      <c r="A56" s="2">
+        <v>8001</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8001</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1</v>
+      </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
+      <c r="K56" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L56" s="11">
+        <v>500</v>
+      </c>
+      <c r="M56" s="11">
+        <v>1</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="4:15">
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2">
+        <v>8002</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8002</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
+      <c r="K57" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="11">
+        <v>500</v>
+      </c>
+      <c r="M57" s="11">
+        <v>1</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="4:15">
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2">
+        <v>8003</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8003</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1</v>
+      </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
+      <c r="K58" s="11">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="11">
+        <v>500</v>
+      </c>
+      <c r="M58" s="11">
+        <v>1</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="O58" s="12"/>
     </row>
   </sheetData>
